--- a/Excel Chapter 2 Project Part 2/Garcia_exploring_e02_grader_h1.xlsx
+++ b/Excel Chapter 2 Project Part 2/Garcia_exploring_e02_grader_h1.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbate\Documents\2016 PCT Reviews\EX16_XL_CH02_GRADER_CAP_HW - Chapter Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mark Garcia\Desktop\IS 223\Course Work\Excel Chapter 2 Project Part 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9CDF3B-C660-4337-B588-B16B6224797C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7170"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClassRing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -104,8 +113,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -237,111 +247,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="16" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="15" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="16">
+    <cellStyle name="+Uc+OQQuEEQ3hV8UzcHaT4ksHhDE0Huv+Ok2qWMFCM8=-~6mEIs/j2SusWS8WJCRGhNg==" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="1sLBmWGaYz6lvvcEuXV0w8YbHpD+gIn3pRbjwT+Oc1o=-~cZnoImhdo4ApDrseVl6zUg==" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="2B50i45uOAXKaiwYUGWhqnpuDfxvP2HjwTRZSO7geRE=-~YrDNPQCb7L+lv+jcOYb6Vw==" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="2cN+8mQKl/3L0VqFxpETFv60MdIxU24DthvCL5SaXNM=-~GL5Tj5jVBNhcJ3HP+CtYBQ==" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="2Hw5ND0sHSp1RIfpPllHMdKwQRkt+NXu8cSwKEuF2tA=-~p74nHhsMJICxMNjcUQzglQ==" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="4H8VfCB+Anha+gFJzVesQa0pkt8SlVV8Au4N/zy4UNI=-~72OSIm8CXwMXgGeTyKMPAw==" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="afPnlHEBqDTnQOihLxGo7MSH039eb3xBKe+zRg2DSUY=-~hCcJsnKw/FTYuxRc7hy1tg==" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="CMlyuvgmqaabJg8PYWk6M0m5mPrqU8+8CVv5foayWaM=-~oSy5kOIYyy28gP9Y9j1t0A==" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="CsZpCvt9XEZbxfJHG0RjMxpFthjv+bCiapXYowkJ4jA=-~oUfAnr89FQmO8WjbJ5L/Iw==" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="dRoQLiZ6Wybkj868NTHko4UZykT01Ly7HX1dPUyl1nk=-~mf3pmplIaTPME9qdQqIydw==" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="hrwU8iJCTPsXSRYW69gCa6AKbgTR5K1l6fNuPSLCEx4=-~NsnqXkksRfxbFaolQ4QsUQ==" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="iv9b5c9Kc9oOcfXvcScA4y+ey+StEGRHx//ARnUKzFE=-~saxGJd9dB2/4Admg96iGaw==" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="afPnlHEBqDTnQOihLxGo7MSH039eb3xBKe+zRg2DSUY=-~hCcJsnKw/FTYuxRc7hy1tg==" xfId="2"/>
-    <cellStyle name="1sLBmWGaYz6lvvcEuXV0w8YbHpD+gIn3pRbjwT+Oc1o=-~cZnoImhdo4ApDrseVl6zUg==" xfId="3"/>
-    <cellStyle name="4H8VfCB+Anha+gFJzVesQa0pkt8SlVV8Au4N/zy4UNI=-~72OSIm8CXwMXgGeTyKMPAw==" xfId="4"/>
-    <cellStyle name="ShOGOrRuTC9ImZQLmUCbwbV63y2rojxjTsScd0LLVjU=-~XjbiQvDGlcT3dgNyPIvjCA==" xfId="5"/>
-    <cellStyle name="dRoQLiZ6Wybkj868NTHko4UZykT01Ly7HX1dPUyl1nk=-~mf3pmplIaTPME9qdQqIydw==" xfId="6"/>
-    <cellStyle name="wbudCwSrdNCajd789s+JedFYS3aoz0Ydk7PRtVf8oCM=-~GqF75ezGb+CL5hBs2JgVFQ==" xfId="7"/>
-    <cellStyle name="2B50i45uOAXKaiwYUGWhqnpuDfxvP2HjwTRZSO7geRE=-~YrDNPQCb7L+lv+jcOYb6Vw==" xfId="8"/>
-    <cellStyle name="zBD49E7uAnkr2bTdYMCvZuAx4O61JefPeTbqzoFgM/0=-~L2maooQz2Ip7Hdz1fJZSxw==" xfId="9"/>
-    <cellStyle name="CMlyuvgmqaabJg8PYWk6M0m5mPrqU8+8CVv5foayWaM=-~oSy5kOIYyy28gP9Y9j1t0A==" xfId="10"/>
-    <cellStyle name="CsZpCvt9XEZbxfJHG0RjMxpFthjv+bCiapXYowkJ4jA=-~oUfAnr89FQmO8WjbJ5L/Iw==" xfId="11"/>
-    <cellStyle name="2Hw5ND0sHSp1RIfpPllHMdKwQRkt+NXu8cSwKEuF2tA=-~p74nHhsMJICxMNjcUQzglQ==" xfId="12"/>
-    <cellStyle name="hrwU8iJCTPsXSRYW69gCa6AKbgTR5K1l6fNuPSLCEx4=-~NsnqXkksRfxbFaolQ4QsUQ==" xfId="13"/>
-    <cellStyle name="iv9b5c9Kc9oOcfXvcScA4y+ey+StEGRHx//ARnUKzFE=-~saxGJd9dB2/4Admg96iGaw==" xfId="14"/>
-    <cellStyle name="2cN+8mQKl/3L0VqFxpETFv60MdIxU24DthvCL5SaXNM=-~GL5Tj5jVBNhcJ3HP+CtYBQ==" xfId="15"/>
-    <cellStyle name="+Uc+OQQuEEQ3hV8UzcHaT4ksHhDE0Huv+Ok2qWMFCM8=-~6mEIs/j2SusWS8WJCRGhNg==" xfId="16"/>
+    <cellStyle name="ShOGOrRuTC9ImZQLmUCbwbV63y2rojxjTsScd0LLVjU=-~XjbiQvDGlcT3dgNyPIvjCA==" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="wbudCwSrdNCajd789s+JedFYS3aoz0Ydk7PRtVf8oCM=-~GqF75ezGb+CL5hBs2JgVFQ==" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="zBD49E7uAnkr2bTdYMCvZuAx4O61JefPeTbqzoFgM/0=-~L2maooQz2Ip7Hdz1fJZSxw==" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,224 +596,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="14">
+        <f ca="1">TODAY()</f>
+        <v>44252</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="15">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="15">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="15">
+      <c r="C5" s="15">
+        <f>VLOOKUP(B5,$A$16:$B$19,2)</f>
+        <v>550</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="15">
+      <c r="E5" s="15">
+        <f>IF(D5="Yes",C5+C5*$B$21,C5)</f>
+        <v>577.5</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
+      <c r="G5" s="17">
+        <f>PMT($B$22/12,F5*12,-E5)</f>
+        <v>48.910611033027365</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="15">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="15">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="15">
+      <c r="C6" s="15">
+        <f t="shared" ref="C6:C11" si="0">VLOOKUP(B6,$A$16:$B$19,2)</f>
+        <v>550</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15">
+      <c r="E6" s="15">
+        <f t="shared" ref="E6:E11" si="1">IF(D6="Yes",C6+C6*$B$21,C6)</f>
+        <v>577.5</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
+      <c r="G6" s="17">
+        <f t="shared" ref="G6:G11" si="2">PMT($B$22/12,F6*12,-E6)</f>
+        <v>48.910611033027365</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="15">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s" s="15">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s" s="15">
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15">
+      <c r="E7" s="15">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="F7" s="1">
         <v>2</v>
       </c>
+      <c r="G7" s="17">
+        <f t="shared" si="2"/>
+        <v>30.086848385689272</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="15">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s" s="15">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s" s="15">
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="15">
+      <c r="E8" s="15">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="F8" s="1">
         <v>3</v>
       </c>
+      <c r="G8" s="17">
+        <f t="shared" si="2"/>
+        <v>15.994665296858782</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="15">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s" s="15">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s" s="15">
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="15">
+      <c r="E9" s="15">
+        <f t="shared" si="1"/>
+        <v>577.5</v>
+      </c>
+      <c r="F9" s="1">
         <v>3</v>
       </c>
+      <c r="G9" s="17">
+        <f t="shared" si="2"/>
+        <v>16.794398561701723</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="15">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s" s="15">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s" s="15">
+      <c r="C10" s="15">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="15">
+      <c r="E10" s="15">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="F10" s="1">
         <v>2</v>
       </c>
+      <c r="G10" s="17">
+        <f t="shared" si="2"/>
+        <v>23.639666588755858</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="15">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s" s="15">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s" s="15">
+      <c r="C11" s="15">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="15">
+      <c r="E11" s="15">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+      <c r="F11" s="1">
         <v>3</v>
       </c>
+      <c r="G11" s="17">
+        <f t="shared" si="2"/>
+        <v>21.374689078529464</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="16">
+        <f>SUM(C5:C11)</f>
+        <v>4150</v>
+      </c>
+      <c r="E12" s="16">
+        <f>SUM(E5:E11)</f>
+        <v>4267.5</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="16">
+        <f>SUM(G5:G11)</f>
+        <v>205.71148997758982</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="15">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="15">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="7">
         <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="15">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="7">
         <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" s="15">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="7">
         <v>750</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:2" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="9">
         <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="9">
         <v>0.03</v>
       </c>
     </row>
@@ -843,21 +920,22 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.3" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LMark&amp;C&amp;A&amp;R&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=customXML/item.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <project>
   <id>7IFpKruCYdt55hDnXN+8cl7rLglnE6Plpl6ddQCXATI=-~J/vzZvLEmKUFFt0YavLwkg==</id>
 </project>
 </file>
 
-<file path=customXML/itemProps.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officedocument/2006/2/customXml" ds:itemID="{C66AC4F1-97D3-4D10-8D07-51E6CC79AD91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785D5153-DA23-40F4-B137-7103CBC08A70}">
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>